--- a/src/main/java/dataReader/data.xlsx
+++ b/src/main/java/dataReader/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BulkPolicyCreation\src\main\java\dataReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75823967-C280-4178-9024-C7857FD2BC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AAAD7D-E059-44CD-B3AB-5D85AFA27367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{39529E7C-91DB-4C11-A9E2-311649BBC315}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{39529E7C-91DB-4C11-A9E2-311649BBC315}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -765,7 +765,7 @@
   <dimension ref="A1:CT3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
